--- a/TP2/EJ1/Ej1_Bodes/NoInversor_G8.8_OK.xlsx
+++ b/TP2/EJ1/Ej1_Bodes/NoInversor_G8.8_OK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\InformesTC\TP2\Ej1_Bodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Desktop\Ej1_Bodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082A059F-FFCE-4F0F-8FD4-EE6EE90A95C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF8932F-3A64-4B4E-8E30-EFB5686FCBD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{AF0B76B4-ED66-4FBD-9FCC-3058D0658743}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Gain</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Zinp</t>
+  </si>
+  <si>
+    <t>Vin</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -100,11 +103,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -112,7 +152,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,13 +487,14 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -465,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -488,14 +544,15 @@
         <v>5</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
@@ -504,7 +561,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>10000</v>
       </c>
       <c r="D3" s="1">
@@ -529,15 +586,16 @@
         <v>-6</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="3">
-        <v>8.3000000000000004E-2</v>
-      </c>
       <c r="M3" s="1">
-        <f>(H3*1200)/(H3-L3)</f>
-        <v>7058.823529411764</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>15.67</v>
+      </c>
+      <c r="N3" s="3">
+        <v>12.54</v>
+      </c>
+      <c r="O3" s="3">
+        <f>(M3*1200)/(M3-N3)</f>
+        <v>6007.6677316293917</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
@@ -546,7 +604,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>30000</v>
       </c>
       <c r="D4" s="1">
@@ -555,7 +613,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F17" si="1">2*D4</f>
+        <f t="shared" ref="F4:F7" si="1">2*D4</f>
         <v>0.60285963292384592</v>
       </c>
       <c r="G4" s="1">
@@ -571,15 +629,16 @@
         <v>-17</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="3">
-        <v>8.1000000000000003E-2</v>
-      </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M15" si="2">(H4*1200)/(H4-L4)</f>
-        <v>6315.78947368421</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+        <v>15.69</v>
+      </c>
+      <c r="N4" s="3">
+        <v>12.55</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O20" si="2">(M4*1200)/(M4-N4)</f>
+        <v>5996.1783439490473</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
@@ -588,7 +647,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>50000</v>
       </c>
       <c r="D5" s="1">
@@ -613,15 +672,16 @@
         <v>-29</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="3">
-        <v>0.08</v>
-      </c>
       <c r="M5" s="1">
-        <f t="shared" si="2"/>
-        <v>5999.9999999999991</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+        <v>15.72</v>
+      </c>
+      <c r="N5" s="3">
+        <v>12.56</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="2"/>
+        <v>5969.6202531645567</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
@@ -630,7 +690,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>70000</v>
       </c>
       <c r="D6" s="1">
@@ -655,15 +715,16 @@
         <v>-40</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="3">
-        <v>0.08</v>
-      </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>5999.9999999999991</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+        <v>15.74</v>
+      </c>
+      <c r="N6" s="3">
+        <v>12.57</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="2"/>
+        <v>5958.3596214511044</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
@@ -672,7 +733,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>90000</v>
       </c>
       <c r="D7" s="1">
@@ -697,15 +758,16 @@
         <v>-46</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="3">
-        <v>7.9000000000000001E-2</v>
-      </c>
       <c r="M7" s="1">
-        <f t="shared" si="2"/>
-        <v>5714.2857142857129</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+        <v>15.75</v>
+      </c>
+      <c r="N7" s="3">
+        <v>12.58</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="2"/>
+        <v>5962.1451104100952</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
@@ -714,7 +776,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>101000</v>
       </c>
       <c r="D8" s="1">
@@ -723,7 +785,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <f>2*D8</f>
+        <f t="shared" ref="F8:F15" si="3">2*D8</f>
         <v>0.17906721770015227</v>
       </c>
       <c r="G8" s="1">
@@ -739,15 +801,16 @@
         <v>-49</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="3">
-        <v>7.8E-2</v>
-      </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
-        <v>5454.5454545454531</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+        <v>15.77</v>
+      </c>
+      <c r="N8" s="3">
+        <v>12.59</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="2"/>
+        <v>5950.9433962264156</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
@@ -756,7 +819,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>103000</v>
       </c>
       <c r="D9" s="1">
@@ -765,7 +828,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <f>2*D9</f>
+        <f t="shared" si="3"/>
         <v>0.17559018434675122</v>
       </c>
       <c r="G9" s="1">
@@ -781,15 +844,16 @@
         <v>-50</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="3">
-        <v>7.8E-2</v>
-      </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
-        <v>5454.5454545454531</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+        <v>15.77</v>
+      </c>
+      <c r="N9" s="3">
+        <v>12.59</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="2"/>
+        <v>5950.9433962264156</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
@@ -798,7 +862,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>105000</v>
       </c>
       <c r="D10" s="1">
@@ -807,7 +871,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <f>2*D10</f>
+        <f t="shared" si="3"/>
         <v>0.17224560940681313</v>
       </c>
       <c r="G10" s="1">
@@ -823,15 +887,16 @@
         <v>-50</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="3">
-        <v>7.8E-2</v>
-      </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
-        <v>5454.5454545454531</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+        <v>15.77</v>
+      </c>
+      <c r="N10" s="3">
+        <v>12.59</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="2"/>
+        <v>5950.9433962264156</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
@@ -840,7 +905,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>107000</v>
       </c>
       <c r="D11" s="1">
@@ -849,7 +914,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f>2*D11</f>
+        <f t="shared" si="3"/>
         <v>0.16902606530575121</v>
       </c>
       <c r="G11" s="1">
@@ -865,15 +930,16 @@
         <v>-51</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="3">
-        <v>7.8E-2</v>
-      </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
-        <v>5454.5454545454531</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+        <v>15.77</v>
+      </c>
+      <c r="N11" s="3">
+        <v>12.59</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="2"/>
+        <v>5950.9433962264156</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
@@ -882,7 +948,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>109000</v>
       </c>
       <c r="D12" s="1">
@@ -891,7 +957,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <f>2*D12</f>
+        <f t="shared" si="3"/>
         <v>0.16592466961206767</v>
       </c>
       <c r="G12" s="1">
@@ -907,15 +973,16 @@
         <v>-52</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="3">
-        <v>7.8E-2</v>
-      </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
-        <v>5454.5454545454531</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+        <v>15.77</v>
+      </c>
+      <c r="N12" s="3">
+        <v>12.59</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="2"/>
+        <v>5950.9433962264156</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
@@ -924,7 +991,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>115000</v>
       </c>
       <c r="D13" s="1">
@@ -933,7 +1000,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <f>2*D13</f>
+        <f t="shared" si="3"/>
         <v>0.15726773032795982</v>
       </c>
       <c r="G13" s="1">
@@ -949,15 +1016,16 @@
         <v>-54</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="3">
-        <v>7.8E-2</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="2"/>
-        <v>5454.5454545454531</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="M13" s="7">
+        <v>15.77</v>
+      </c>
+      <c r="N13" s="3">
+        <v>12.59</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="2"/>
+        <v>5950.9433962264156</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
@@ -966,7 +1034,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>120000</v>
       </c>
       <c r="D14" s="1">
@@ -975,7 +1043,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <f>2*D14</f>
+        <f t="shared" si="3"/>
         <v>0.15071490823096148</v>
       </c>
       <c r="G14" s="1">
@@ -991,15 +1059,16 @@
         <v>-56</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="3">
-        <v>7.8E-2</v>
-      </c>
       <c r="M14" s="1">
-        <f t="shared" si="2"/>
-        <v>5454.5454545454531</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+        <v>15.78</v>
+      </c>
+      <c r="N14" s="3">
+        <v>12.58</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="2"/>
+        <v>5917.5000000000009</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
@@ -1008,7 +1077,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>150000</v>
       </c>
       <c r="D15" s="1">
@@ -1017,7 +1086,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <f>2*D15</f>
+        <f t="shared" si="3"/>
         <v>0.12057192658476919</v>
       </c>
       <c r="G15" s="1">
@@ -1033,34 +1102,59 @@
         <v>-63</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="3">
-        <v>7.8E-2</v>
-      </c>
       <c r="M15" s="1">
-        <f t="shared" si="2"/>
-        <v>5454.5454545454531</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+        <v>15.79</v>
+      </c>
+      <c r="N15" s="3">
+        <v>12.58</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="2"/>
+        <v>5902.8037383177589</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="C16" s="8">
+        <v>200000</v>
+      </c>
+      <c r="M16" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="N16" s="3">
+        <v>12.58</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>5888.1987577639738</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="C17" s="8">
+        <v>400000</v>
+      </c>
+      <c r="M17" s="1">
+        <v>15.82</v>
+      </c>
+      <c r="N17" s="3">
+        <v>12.56</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>5823.312883435583</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="5">
+        <v>600000</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1070,16 +1164,25 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="M18" s="1">
+        <v>15.85</v>
+      </c>
+      <c r="N18" s="3">
+        <v>12.52</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="2"/>
+        <v>5711.7117117117114</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="5">
+        <v>800000</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1089,16 +1192,25 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="M19" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="N19" s="3">
+        <v>12.45</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>5530.4347826086941</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="6">
+        <v>1000000</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1108,9 +1220,16 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="M20" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="N20" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="2"/>
+        <v>5451.4285714285716</v>
+      </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
